--- a/Smt.SDK.Test/bin/Debug/Excel/运费模板/菜鸟特货专线-标快.xlsx
+++ b/Smt.SDK.Test/bin/Debug/Excel/运费模板/菜鸟特货专线-标快.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">国家(二字码或中文)</t>
   </si>
@@ -43,21 +43,6 @@
   </si>
   <si>
     <t xml:space="preserve">RU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
   </si>
 </sst>
 </file>
@@ -137,26 +122,26 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
+      <c r="B2">
+        <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
+      <c r="C2">
+        <v>3000</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
+      <c r="D2">
+        <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
+      <c r="E2">
+        <v>0.093</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
+      <c r="F2">
+        <v>1</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
+      <c r="G2">
+        <v>0.093</v>
       </c>
-      <c r="H2" t="s">
-        <v>13</v>
+      <c r="H2">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
